--- a/Data/EC/NIT-8904053257.xlsx
+++ b/Data/EC/NIT-8904053257.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A76A62C-5192-487D-8841-595A1140D2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA0E7A5-5D9B-42A7-8C3E-311161BCED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09E0DD56-086D-4CC6-ADE2-A76782F78F2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62783873-117F-49B2-B282-558DD2D7547B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="142">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,361 +71,364 @@
     <t>DIEGO ANDRES ESCOBAR DUQUE</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73435585</t>
+  </si>
+  <si>
+    <t>DEIS JOSE TORRES VIAÑA</t>
+  </si>
+  <si>
+    <t>19769609</t>
+  </si>
+  <si>
+    <t>HENRY ROBERTO JIMENEZ QUIROZ</t>
+  </si>
+  <si>
+    <t>1101812106</t>
+  </si>
+  <si>
+    <t>DIEGO SEGUNDO BOLAÑO PUENTES</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>18881933</t>
+  </si>
+  <si>
+    <t>OLMEDES JOSE OLIVERA TOVAR</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1052075332</t>
+  </si>
+  <si>
+    <t>EFREN DARIO LAMBRAÑO DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>18881933</t>
-  </si>
-  <si>
-    <t>OLMEDES JOSE OLIVERA TOVAR</t>
-  </si>
-  <si>
-    <t>73435585</t>
-  </si>
-  <si>
-    <t>DEIS JOSE TORRES VIAÑA</t>
-  </si>
-  <si>
-    <t>1052075332</t>
-  </si>
-  <si>
-    <t>EFREN DARIO LAMBRAÑO DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>19769609</t>
-  </si>
-  <si>
-    <t>HENRY ROBERTO JIMENEZ QUIROZ</t>
-  </si>
-  <si>
-    <t>1101812106</t>
-  </si>
-  <si>
-    <t>DIEGO SEGUNDO BOLAÑO PUENTES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +527,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -537,9 +542,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -739,23 +742,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,10 +786,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1AB90B-88A4-F426-182E-5D3E7622128B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB7A616-EEDF-0015-4A24-B72EDAFD1B6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD4EC2A-AB42-468D-B37C-0BD3CAEE6FEF}">
-  <dimension ref="B2:J362"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0471BDA4-83BE-4185-91A5-F4A90387BB52}">
+  <dimension ref="B2:J365"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1215,7 +1218,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1260,7 +1263,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1292,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10508741</v>
+        <v>10602488</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1308,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1345,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1368,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1382,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1405,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1428,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1457,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1474,16 +1477,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1497,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1520,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1552,7 +1555,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1566,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1589,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1612,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1641,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1658,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1681,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1704,16 +1707,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1733,10 +1736,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1750,16 +1753,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1773,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1796,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1825,10 +1828,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1842,16 +1845,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1865,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1888,16 +1891,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1917,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1934,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1957,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1980,16 +1983,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2009,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2026,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2049,16 +2052,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2072,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2095,16 +2098,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2124,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2141,16 +2144,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2164,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2187,16 +2190,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2216,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2233,16 +2236,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2256,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>65830</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>1973958</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2279,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2308,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2325,16 +2328,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2348,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2377,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2394,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2417,16 +2420,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2446,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2463,16 +2466,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2486,16 +2489,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2515,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2532,16 +2535,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2555,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2584,10 +2587,10 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2601,16 +2604,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2624,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2653,10 +2656,10 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2670,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2693,16 +2696,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2722,10 +2725,10 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2739,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2762,16 +2765,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2791,10 +2794,10 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2808,16 +2811,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2831,16 +2834,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2860,10 +2863,10 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2877,16 +2880,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2900,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2923,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2952,10 +2955,10 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2969,16 +2972,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2992,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3015,16 +3018,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3044,10 +3047,10 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -3061,16 +3064,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -3084,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3107,16 +3110,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3136,10 +3139,10 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3153,16 +3156,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3176,16 +3179,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3205,10 +3208,10 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3222,16 +3225,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3245,16 +3248,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3274,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
         <v>25774</v>
@@ -3291,16 +3294,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3314,16 +3317,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3343,7 +3346,7 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
         <v>25774</v>
@@ -3360,16 +3363,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3383,16 +3386,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3412,7 +3415,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
         <v>25774</v>
@@ -3429,16 +3432,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3452,16 +3455,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3481,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3498,16 +3501,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3521,16 +3524,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3550,10 +3553,10 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F111" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3567,16 +3570,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3590,16 +3593,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3619,10 +3622,10 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="F114" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3636,16 +3639,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3659,16 +3662,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="F116" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3688,10 +3691,10 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="F117" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3705,16 +3708,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F118" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3728,16 +3731,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="F119" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3757,10 +3760,10 @@
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="F120" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3774,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F121" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3797,16 +3800,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F122" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3826,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F123" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3843,16 +3846,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="F124" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3866,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3889,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3912,13 +3915,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3935,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3958,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3981,13 +3984,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -4004,13 +4007,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4027,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4050,13 +4053,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4073,13 +4076,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4096,13 +4099,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4119,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4142,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4165,13 +4168,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -4188,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4211,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4234,13 +4237,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4257,13 +4260,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4280,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4303,13 +4306,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4326,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4349,13 +4352,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4372,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4395,13 +4398,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4418,13 +4421,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4441,13 +4444,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4464,13 +4467,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4487,13 +4490,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4510,13 +4513,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4533,13 +4536,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4556,13 +4559,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4579,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4602,13 +4605,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4625,13 +4628,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4648,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4671,13 +4674,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4694,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4717,13 +4720,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4740,13 +4743,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4763,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4786,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4809,13 +4812,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4832,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4855,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4878,13 +4881,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4901,13 +4904,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4924,13 +4927,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4947,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4970,13 +4973,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -4993,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -5016,13 +5019,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -5039,13 +5042,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5062,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5085,13 +5088,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5108,13 +5111,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
@@ -5131,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5154,13 +5157,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5177,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5200,13 +5203,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5223,13 +5226,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5246,13 +5249,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5269,13 +5272,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5292,13 +5295,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5315,10 +5318,10 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>73</v>
@@ -5338,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>74</v>
@@ -5361,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5384,13 +5387,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5407,13 +5410,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5430,13 +5433,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5453,13 +5456,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5476,13 +5479,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5499,13 +5502,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5522,13 +5525,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5545,13 +5548,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5568,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5591,13 +5594,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5614,13 +5617,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5637,13 +5640,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5660,13 +5663,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5683,13 +5686,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5706,13 +5709,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5729,13 +5732,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5752,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5775,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5798,16 +5801,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F209" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
         <v>781242</v>
@@ -5821,16 +5824,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F210" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
         <v>781242</v>
@@ -5844,16 +5847,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F211" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
         <v>781242</v>
@@ -5867,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F212" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
         <v>781242</v>
@@ -5890,16 +5893,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F213" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5913,16 +5916,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F214" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5936,16 +5939,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F215" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5959,16 +5962,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F216" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5982,16 +5985,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F217" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -6005,16 +6008,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F218" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -6028,16 +6031,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F219" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -6051,16 +6054,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F220" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -6074,16 +6077,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F221" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -6097,16 +6100,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F222" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -6120,16 +6123,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F223" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6143,16 +6146,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F224" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6166,16 +6169,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="F225" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6189,16 +6192,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F226" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6212,16 +6215,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F227" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
         <v>781242</v>
@@ -6235,16 +6238,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F228" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6258,16 +6261,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F229" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6281,16 +6284,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F230" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6304,16 +6307,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F231" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6327,16 +6330,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F232" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6350,16 +6353,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F233" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6373,16 +6376,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F234" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
         <v>781242</v>
@@ -6396,19 +6399,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F235" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>737718</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6419,19 +6422,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F236" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>737718</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6442,19 +6445,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F237" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>737718</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6465,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F238" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6488,19 +6491,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F239" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6511,19 +6514,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F240" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6534,19 +6537,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F241" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6557,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F242" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6580,19 +6583,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F243" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6603,19 +6606,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="F244" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6626,19 +6629,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F245" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6649,19 +6652,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F246" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6672,19 +6675,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F247" s="18">
-        <v>65830</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>1973958</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6695,13 +6698,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6718,13 +6721,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6741,13 +6744,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6764,13 +6767,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6787,13 +6790,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6810,13 +6813,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6833,13 +6836,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6856,13 +6859,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6879,13 +6882,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6902,13 +6905,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6925,13 +6928,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
@@ -6948,13 +6951,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6971,13 +6974,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -6994,13 +6997,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7017,13 +7020,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -7040,13 +7043,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7063,13 +7066,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7086,13 +7089,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -7109,13 +7112,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7132,13 +7135,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7155,13 +7158,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
@@ -7178,13 +7181,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7201,13 +7204,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F270" s="18">
         <v>31249</v>
@@ -7224,13 +7227,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F271" s="18">
         <v>31249</v>
@@ -7247,13 +7250,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7270,13 +7273,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7293,13 +7296,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F274" s="18">
         <v>31249</v>
@@ -7316,13 +7319,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7339,13 +7342,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7362,13 +7365,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F277" s="18">
         <v>31249</v>
@@ -7385,13 +7388,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F278" s="18">
         <v>31249</v>
@@ -7408,13 +7411,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7431,13 +7434,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="F280" s="18">
         <v>31249</v>
@@ -7454,13 +7457,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F281" s="18">
         <v>31249</v>
@@ -7477,13 +7480,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F282" s="18">
         <v>31249</v>
@@ -7500,13 +7503,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F283" s="18">
         <v>31249</v>
@@ -7523,13 +7526,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="F284" s="18">
         <v>31249</v>
@@ -7546,13 +7549,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
@@ -7569,13 +7572,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F286" s="18">
         <v>31249</v>
@@ -7592,13 +7595,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F287" s="18">
         <v>31249</v>
@@ -7615,13 +7618,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7638,13 +7641,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F289" s="18">
         <v>31249</v>
@@ -7661,13 +7664,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F290" s="18">
         <v>31249</v>
@@ -7684,13 +7687,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7707,13 +7710,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F292" s="18">
         <v>31249</v>
@@ -7730,13 +7733,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7753,13 +7756,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F294" s="18">
         <v>31249</v>
@@ -7776,13 +7779,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
@@ -7799,13 +7802,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7822,13 +7825,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F297" s="18">
         <v>31249</v>
@@ -7845,13 +7848,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F298" s="18">
         <v>31249</v>
@@ -7868,13 +7871,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
@@ -7891,13 +7894,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7914,13 +7917,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7937,13 +7940,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7960,13 +7963,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7983,13 +7986,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -8006,13 +8009,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -8029,13 +8032,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -8052,13 +8055,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -8075,13 +8078,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8098,13 +8101,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
@@ -8121,13 +8124,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8144,13 +8147,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8167,13 +8170,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8190,13 +8193,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8213,13 +8216,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8236,13 +8239,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8259,13 +8262,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8282,13 +8285,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F317" s="18">
         <v>31249</v>
@@ -8305,13 +8308,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
@@ -8328,13 +8331,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="F319" s="18">
         <v>31249</v>
@@ -8351,13 +8354,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F320" s="18">
         <v>31249</v>
@@ -8374,13 +8377,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F321" s="18">
         <v>31249</v>
@@ -8397,13 +8400,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F322" s="18">
         <v>31249</v>
@@ -8420,13 +8423,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
@@ -8443,13 +8446,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F324" s="18">
         <v>31249</v>
@@ -8466,13 +8469,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F325" s="18">
         <v>31249</v>
@@ -8489,13 +8492,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F326" s="18">
         <v>31249</v>
@@ -8512,13 +8515,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F327" s="18">
         <v>31249</v>
@@ -8535,13 +8538,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F328" s="18">
         <v>31249</v>
@@ -8558,13 +8561,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="F329" s="18">
         <v>31249</v>
@@ -8581,13 +8584,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F330" s="18">
         <v>31249</v>
@@ -8604,16 +8607,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F331" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8627,16 +8630,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F332" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8650,16 +8653,16 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F333" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
         <v>781242</v>
@@ -8673,16 +8676,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F334" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8696,16 +8699,16 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F335" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G335" s="18">
         <v>781242</v>
@@ -8719,16 +8722,16 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F336" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
         <v>781242</v>
@@ -8742,16 +8745,16 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F337" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G337" s="18">
         <v>781242</v>
@@ -8765,16 +8768,16 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F338" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G338" s="18">
         <v>781242</v>
@@ -8788,16 +8791,16 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F339" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
         <v>781242</v>
@@ -8811,16 +8814,16 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F340" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
         <v>781242</v>
@@ -8834,16 +8837,16 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F341" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
         <v>781242</v>
@@ -8857,16 +8860,16 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F342" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G342" s="18">
         <v>781242</v>
@@ -8880,16 +8883,16 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F343" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
         <v>781242</v>
@@ -8903,16 +8906,16 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F344" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
         <v>781242</v>
@@ -8926,16 +8929,16 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F345" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G345" s="18">
         <v>781242</v>
@@ -8949,16 +8952,16 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F346" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
         <v>781242</v>
@@ -8972,16 +8975,16 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F347" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G347" s="18">
         <v>781242</v>
@@ -8995,16 +8998,16 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F348" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G348" s="18">
         <v>781242</v>
@@ -9018,16 +9021,16 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F349" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
         <v>781242</v>
@@ -9041,16 +9044,16 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F350" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G350" s="18">
         <v>781242</v>
@@ -9064,16 +9067,16 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E351" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D351" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="F351" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
         <v>781242</v>
@@ -9087,16 +9090,16 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D352" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="F352" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G352" s="18">
         <v>781242</v>
@@ -9110,16 +9113,16 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E353" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D353" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="F353" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
         <v>781242</v>
@@ -9133,16 +9136,16 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D354" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E354" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E354" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="F354" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G354" s="18">
         <v>781242</v>
@@ -9156,16 +9159,16 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D355" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E355" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="F355" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G355" s="18">
         <v>781242</v>
@@ -9175,56 +9178,125 @@
       <c r="J355" s="20"/>
     </row>
     <row r="356" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B356" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D356" s="23" t="s">
+      <c r="B356" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E356" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E356" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F356" s="24">
-        <v>24640</v>
-      </c>
-      <c r="G356" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H356" s="25"/>
-      <c r="I356" s="25"/>
-      <c r="J356" s="26"/>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B361" s="32" t="s">
+      <c r="F356" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G356" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H356" s="19"/>
+      <c r="I356" s="19"/>
+      <c r="J356" s="20"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B357" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F357" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G357" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H357" s="19"/>
+      <c r="I357" s="19"/>
+      <c r="J357" s="20"/>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B358" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F358" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G358" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H358" s="19"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="20"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B359" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D359" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E359" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F359" s="24">
+        <v>31249</v>
+      </c>
+      <c r="G359" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H359" s="25"/>
+      <c r="I359" s="25"/>
+      <c r="J359" s="26"/>
+    </row>
+    <row r="364" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B364" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C364" s="32"/>
+      <c r="H364" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B365" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C361" s="32"/>
-      <c r="H361" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B362" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C362" s="32"/>
-      <c r="H362" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
+      <c r="C365" s="32"/>
+      <c r="H365" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="H362:J362"/>
-    <mergeCell ref="H361:J361"/>
+    <mergeCell ref="B365:C365"/>
+    <mergeCell ref="B364:C364"/>
+    <mergeCell ref="H365:J365"/>
+    <mergeCell ref="H364:J364"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
